--- a/resources/GINF1/notes.xlsx
+++ b/resources/GINF1/notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp\www\Gestion-des-notes-avec-XML\resources\GINF1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76522E44-8B3B-4179-8716-59586A27A575}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{633D215A-924A-4A40-9FBF-72207C2F3036}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>CNE</t>
   </si>
@@ -347,9 +347,6 @@
   </si>
   <si>
     <t>Note_GINF26</t>
-  </si>
-  <si>
-    <t>MOY</t>
   </si>
 </sst>
 </file>
@@ -699,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -724,7 +721,7 @@
     <col min="15" max="15" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -770,11 +767,8 @@
       <c r="O1" t="s">
         <v>108</v>
       </c>
-      <c r="P1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>283</v>
       </c>
@@ -820,12 +814,8 @@
       <c r="O2">
         <v>12</v>
       </c>
-      <c r="P2">
-        <f>AVERAGE(D2:O2)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>284</v>
       </c>
@@ -871,12 +861,8 @@
       <c r="O3">
         <v>12</v>
       </c>
-      <c r="P3">
-        <f t="shared" ref="P3:P48" si="0">AVERAGE(D3:O3)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>285</v>
       </c>
@@ -922,12 +908,8 @@
       <c r="O4">
         <v>12</v>
       </c>
-      <c r="P4">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>286</v>
       </c>
@@ -973,12 +955,8 @@
       <c r="O5">
         <v>12</v>
       </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>287</v>
       </c>
@@ -1024,12 +1002,8 @@
       <c r="O6">
         <v>12</v>
       </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>288</v>
       </c>
@@ -1075,12 +1049,8 @@
       <c r="O7">
         <v>12</v>
       </c>
-      <c r="P7">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>289</v>
       </c>
@@ -1126,12 +1096,8 @@
       <c r="O8">
         <v>12</v>
       </c>
-      <c r="P8">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>290</v>
       </c>
@@ -1177,12 +1143,8 @@
       <c r="O9">
         <v>12</v>
       </c>
-      <c r="P9">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>291</v>
       </c>
@@ -1228,12 +1190,8 @@
       <c r="O10">
         <v>12</v>
       </c>
-      <c r="P10">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>292</v>
       </c>
@@ -1279,12 +1237,8 @@
       <c r="O11">
         <v>12</v>
       </c>
-      <c r="P11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>293</v>
       </c>
@@ -1330,12 +1284,8 @@
       <c r="O12">
         <v>12</v>
       </c>
-      <c r="P12">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>294</v>
       </c>
@@ -1381,12 +1331,8 @@
       <c r="O13">
         <v>12</v>
       </c>
-      <c r="P13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>295</v>
       </c>
@@ -1432,12 +1378,8 @@
       <c r="O14">
         <v>12</v>
       </c>
-      <c r="P14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>296</v>
       </c>
@@ -1483,12 +1425,8 @@
       <c r="O15">
         <v>12</v>
       </c>
-      <c r="P15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>297</v>
       </c>
@@ -1534,12 +1472,8 @@
       <c r="O16">
         <v>12</v>
       </c>
-      <c r="P16">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>298</v>
       </c>
@@ -1585,12 +1519,8 @@
       <c r="O17">
         <v>12</v>
       </c>
-      <c r="P17">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>299</v>
       </c>
@@ -1636,12 +1566,8 @@
       <c r="O18">
         <v>12</v>
       </c>
-      <c r="P18">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>300</v>
       </c>
@@ -1687,12 +1613,8 @@
       <c r="O19">
         <v>12</v>
       </c>
-      <c r="P19">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>301</v>
       </c>
@@ -1738,12 +1660,8 @@
       <c r="O20">
         <v>12</v>
       </c>
-      <c r="P20">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>302</v>
       </c>
@@ -1789,12 +1707,8 @@
       <c r="O21">
         <v>12</v>
       </c>
-      <c r="P21">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>303</v>
       </c>
@@ -1840,12 +1754,8 @@
       <c r="O22">
         <v>12</v>
       </c>
-      <c r="P22">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>304</v>
       </c>
@@ -1891,12 +1801,8 @@
       <c r="O23">
         <v>12</v>
       </c>
-      <c r="P23">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>305</v>
       </c>
@@ -1942,12 +1848,8 @@
       <c r="O24">
         <v>12</v>
       </c>
-      <c r="P24">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>306</v>
       </c>
@@ -1993,12 +1895,8 @@
       <c r="O25">
         <v>12</v>
       </c>
-      <c r="P25">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>307</v>
       </c>
@@ -2044,12 +1942,8 @@
       <c r="O26">
         <v>12</v>
       </c>
-      <c r="P26">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>308</v>
       </c>
@@ -2095,12 +1989,8 @@
       <c r="O27">
         <v>12</v>
       </c>
-      <c r="P27">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>309</v>
       </c>
@@ -2146,12 +2036,8 @@
       <c r="O28">
         <v>12</v>
       </c>
-      <c r="P28">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>310</v>
       </c>
@@ -2197,12 +2083,8 @@
       <c r="O29">
         <v>12</v>
       </c>
-      <c r="P29">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>311</v>
       </c>
@@ -2248,12 +2130,8 @@
       <c r="O30">
         <v>12</v>
       </c>
-      <c r="P30">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>312</v>
       </c>
@@ -2299,12 +2177,8 @@
       <c r="O31">
         <v>12</v>
       </c>
-      <c r="P31">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>313</v>
       </c>
@@ -2350,12 +2224,8 @@
       <c r="O32">
         <v>12</v>
       </c>
-      <c r="P32">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>314</v>
       </c>
@@ -2401,12 +2271,8 @@
       <c r="O33">
         <v>12</v>
       </c>
-      <c r="P33">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>315</v>
       </c>
@@ -2452,12 +2318,8 @@
       <c r="O34">
         <v>12</v>
       </c>
-      <c r="P34">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>316</v>
       </c>
@@ -2503,12 +2365,8 @@
       <c r="O35">
         <v>12</v>
       </c>
-      <c r="P35">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>317</v>
       </c>
@@ -2554,12 +2412,8 @@
       <c r="O36">
         <v>12</v>
       </c>
-      <c r="P36">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>318</v>
       </c>
@@ -2605,12 +2459,8 @@
       <c r="O37">
         <v>12</v>
       </c>
-      <c r="P37">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>319</v>
       </c>
@@ -2656,12 +2506,8 @@
       <c r="O38">
         <v>12</v>
       </c>
-      <c r="P38">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>320</v>
       </c>
@@ -2707,12 +2553,8 @@
       <c r="O39">
         <v>12</v>
       </c>
-      <c r="P39">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>321</v>
       </c>
@@ -2758,12 +2600,8 @@
       <c r="O40">
         <v>12</v>
       </c>
-      <c r="P40">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>322</v>
       </c>
@@ -2809,12 +2647,8 @@
       <c r="O41">
         <v>12</v>
       </c>
-      <c r="P41">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>323</v>
       </c>
@@ -2860,12 +2694,8 @@
       <c r="O42">
         <v>12</v>
       </c>
-      <c r="P42">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>324</v>
       </c>
@@ -2911,12 +2741,8 @@
       <c r="O43">
         <v>12</v>
       </c>
-      <c r="P43">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>325</v>
       </c>
@@ -2962,12 +2788,8 @@
       <c r="O44">
         <v>12</v>
       </c>
-      <c r="P44">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>326</v>
       </c>
@@ -3013,12 +2835,8 @@
       <c r="O45">
         <v>12</v>
       </c>
-      <c r="P45">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>327</v>
       </c>
@@ -3064,12 +2882,8 @@
       <c r="O46">
         <v>12</v>
       </c>
-      <c r="P46">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>328</v>
       </c>
@@ -3115,12 +2929,8 @@
       <c r="O47">
         <v>12</v>
       </c>
-      <c r="P47">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>329</v>
       </c>
@@ -3164,10 +2974,6 @@
         <v>12</v>
       </c>
       <c r="O48">
-        <v>12</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
